--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2081.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2081.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155327301844587</v>
+        <v>1.806427121162415</v>
       </c>
       <c r="B1">
-        <v>3.7676309359975</v>
+        <v>3.581918239593506</v>
       </c>
       <c r="C1">
-        <v>3.590754118955641</v>
+        <v>3.147284269332886</v>
       </c>
       <c r="D1">
-        <v>3.68556945228002</v>
+        <v>3.414026737213135</v>
       </c>
       <c r="E1">
-        <v>1.180825754116578</v>
+        <v>1.729030251502991</v>
       </c>
     </row>
   </sheetData>
